--- a/biology/Microbiologie/Aquimarina/Aquimarina.xlsx
+++ b/biology/Microbiologie/Aquimarina/Aquimarina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquimarina est un genre de bactéries de la famille des Flavobacteriaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (29 avril 2024)[1], ce genre comprend 31 espèces publiées de manière valide :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (29 avril 2024), ce genre comprend 31 espèces publiées de manière valide :
 Aquimarina acroporae Sun et al. 2022
 Aquimarina addita Yi &amp; Chun 2011
 Aquimarina agarilytica Lin et al. 2012
@@ -571,8 +587,6 @@
 Aquimarina spongiae Yoon et al. 2011
 Aquimarina spongiicola Choi et al. 2018
 Aquimarina versatilis Lee et al. 2017
-Espèce publiées de manière non valide
-En 2010, l'espèce "Aquimarina litoralis" a été publiée de manière non valide selon LPSN  (29 avril 2024)[1]. Son nom n'est pas validé mais reste actuellement le nom préféréLPSN  (29 avril 2024)[1].
 </t>
         </is>
       </c>
@@ -598,19 +612,127 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèce publiées de manière non valide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, l'espèce "Aquimarina litoralis" a été publiée de manière non valide selon LPSN  (29 avril 2024). Son nom n'est pas validé mais reste actuellement le nom préféréLPSN  (29 avril 2024).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aquimarina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquimarina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aquimarina Nedashkovskaya et al. 2005[1].
-L'espèce type est : Aquimarina muelleri Nedashkovskaya et al. 2005[1].
-Synonymes
-Aquimarina a pour synonymes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aquimarina Nedashkovskaya et al. 2005.
+L'espèce type est : Aquimarina muelleri Nedashkovskaya et al. 2005.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aquimarina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquimarina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aquimarina a pour synonymes :
 Gaetbulimicrobium Yoon et al. 2006
-Stanierella Nedashkovskaya et al. 2005
-Étymologie
-L'étymologie du nom de genre des Aquimarina est la suivante : A.qui.ma.ri.na. L. fem. n. aqua, eau; L. fem. adj. marina, marin; N.L. fem. n. Aquimarina, un organisme d'eau de mer[1].
+Stanierella Nedashkovskaya et al. 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aquimarina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquimarina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre des Aquimarina est la suivante : A.qui.ma.ri.na. L. fem. n. aqua, eau; L. fem. adj. marina, marin; N.L. fem. n. Aquimarina, un organisme d'eau de mer.
 </t>
         </is>
       </c>
